--- a/product-prediction/product-prediction/Docs/Fase de Analisis.xlsx
+++ b/product-prediction/product-prediction/Docs/Fase de Analisis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\product-prediction\product-prediction\product-prediction\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aspire F 15\Desktop\product-prediction\product-prediction\product-prediction\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82383362-4262-4E09-83EA-8B81787A5A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF20B72A-E1F7-4D37-914C-0D1B56E4BCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{436B2352-DCD9-4E3F-BAD9-52E6C5529D17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{436B2352-DCD9-4E3F-BAD9-52E6C5529D17}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Proceso" sheetId="1" r:id="rId1"/>
@@ -23,35 +23,25 @@
     <sheet name="Trat 6 y 12" sheetId="8" r:id="rId8"/>
     <sheet name="ANOVA" sheetId="9" r:id="rId9"/>
     <sheet name="Resultado Anova" sheetId="11" r:id="rId10"/>
-    <sheet name="Hoja10" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -86,13 +76,7 @@
     <t xml:space="preserve">Analisis para comparar mas de dos medias </t>
   </si>
   <si>
-    <t>Objetivo: comprobar que al menos una media de los tratamientos utilizados para comparar insertion sort y merge sort es diferente a los demas tratamientos</t>
-  </si>
-  <si>
     <t>Ho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">µ1 =  µ2 =  µ3 =  µ4 =  µ5 =  µ6 =  µ7 =  µ8 =  µ9 =  µ10 =  µ11 =  µ12  µ13 =  µ14 =  µ15 =  µ16 =  µ17 =  µ18 =  µ19 =  µ20 =  µ921 =  µ22 =  µ23 =  µ24  </t>
   </si>
   <si>
     <t>Ha</t>
@@ -199,13 +183,19 @@
   <si>
     <t>Como 1,24 es menor a 1,79 , podemos decir que Ho se acepta y por tanto se puede decir que las medias de los tratamientos son similares, se utilizo un nivel de significancia del 5%</t>
   </si>
+  <si>
+    <t>Objetivo: comprobar que al menos una media de los tratamientos utilizados para  comparar los arboles de decisión por implementación propia y de librería.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">µ1 =  µ2 =  µ3 =  µ4 =  µ5 =  µ6 =  µ7 =  µ8 =  µ9 =  µ10 =  µ11 =  µ12  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -381,18 +371,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -406,6 +387,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -414,6 +404,28 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="83">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -452,6 +464,50 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -460,6 +516,341 @@
           <color theme="4"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -502,392 +893,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -907,21 +912,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1002,18 +992,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>230565</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>88140</xdr:rowOff>
+      <xdr:colOff>597407</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>126754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>320205</xdr:colOff>
+      <xdr:colOff>687047</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>164100</xdr:rowOff>
+      <xdr:rowOff>9640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
@@ -1027,12 +1017,12 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="8755440" y="2574165"/>
+            <a:off x="9105549" y="2450082"/>
             <a:ext cx="89640" cy="75960"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Entrada de lápiz 2">
@@ -1095,13 +1085,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15ECE855-8784-4515-8F4A-460A17073C8C}" name="Tabla1" displayName="Tabla1" ref="A1:E101" totalsRowShown="0" headerRowDxfId="77" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15ECE855-8784-4515-8F4A-460A17073C8C}" name="Tabla1" displayName="Tabla1" ref="A1:E101" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A1:E101" xr:uid="{15ECE855-8784-4515-8F4A-460A17073C8C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9DB8932B-2FC8-48BA-AE69-874932B6C7C7}" name="Nivel de implementación" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{0E89D52D-4ED7-4280-96E5-BE484BCCB009}" name="Nivel de tamaño de input" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{B3484F4E-D954-49FF-8BDC-1EA5B059A071}" name="Variable de respuesta" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{39284475-72DB-46AF-80BC-F71E8080C42D}" name="Tratamiento" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{9DB8932B-2FC8-48BA-AE69-874932B6C7C7}" name="Nivel de implementación" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{0E89D52D-4ED7-4280-96E5-BE484BCCB009}" name="Nivel de tamaño de input" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{B3484F4E-D954-49FF-8BDC-1EA5B059A071}" name="Variable de respuesta" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{39284475-72DB-46AF-80BC-F71E8080C42D}" name="Tratamiento" dataDxfId="77"/>
     <tableColumn id="5" xr3:uid="{5A638E89-5756-4EEE-8B35-419F5B7D0D87}" name="Media"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1109,13 +1099,13 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{576A718A-E947-41A6-BCBE-8D66A0FAED38}" name="Tabla12" displayName="Tabla12" ref="H1:L101" totalsRowShown="0" headerRowDxfId="14" dataDxfId="15" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{576A718A-E947-41A6-BCBE-8D66A0FAED38}" name="Tabla12" displayName="Tabla12" ref="H1:L101" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="H1:L101" xr:uid="{576A718A-E947-41A6-BCBE-8D66A0FAED38}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CBFE9C30-9981-4672-86EB-ECC5DF9ED7A1}" name="Nivel de implementación" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{E985DA19-3A30-4772-BF05-B228079EF1B8}" name="Nivel de tamaño de input" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{8543C10D-7630-4BEF-A38C-570F2619E5C4}" name="Variable de respuesta" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{CAFB58D3-E114-4398-BE1C-3C886E94D65D}" name="Tratamiento" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{CBFE9C30-9981-4672-86EB-ECC5DF9ED7A1}" name="Nivel de implementación" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{E985DA19-3A30-4772-BF05-B228079EF1B8}" name="Nivel de tamaño de input" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{8543C10D-7630-4BEF-A38C-570F2619E5C4}" name="Variable de respuesta" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{CAFB58D3-E114-4398-BE1C-3C886E94D65D}" name="Tratamiento" dataDxfId="14"/>
     <tableColumn id="5" xr3:uid="{2896E5FD-6F7E-45E8-8949-5CA3D99BDF50}" name="Media"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1123,13 +1113,13 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{25DDCC62-501E-4A5E-B5CE-700CEB0655DC}" name="Tabla13" displayName="Tabla13" ref="A1:E101" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{25DDCC62-501E-4A5E-B5CE-700CEB0655DC}" name="Tabla13" displayName="Tabla13" ref="A1:E101" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:E101" xr:uid="{25DDCC62-501E-4A5E-B5CE-700CEB0655DC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1C43A5D0-CFDB-4393-9582-78253776452B}" name="Nivel de implementación" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{C184D5AB-A603-486D-B50F-2BE8BB1A725A}" name="Nivel de tamaño de input" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{DB7F3E2D-3595-4C8B-8887-9E222A94B4C1}" name="Variable de respuesta" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{82AC86F7-838D-45B6-9968-09DD8113EE44}" name="Tratamiento" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{1C43A5D0-CFDB-4393-9582-78253776452B}" name="Nivel de implementación" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{C184D5AB-A603-486D-B50F-2BE8BB1A725A}" name="Nivel de tamaño de input" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{DB7F3E2D-3595-4C8B-8887-9E222A94B4C1}" name="Variable de respuesta" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{82AC86F7-838D-45B6-9968-09DD8113EE44}" name="Tratamiento" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{973B8E12-C7DA-4F4A-A213-427462651CB5}" name="Media"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1137,13 +1127,13 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{59AAB3FA-597F-4F77-8D6D-61655F629AE7}" name="Tabla14" displayName="Tabla14" ref="H1:L101" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{59AAB3FA-597F-4F77-8D6D-61655F629AE7}" name="Tabla14" displayName="Tabla14" ref="H1:L101" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="H1:L101" xr:uid="{59AAB3FA-597F-4F77-8D6D-61655F629AE7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1CB5141F-ED68-4E4A-B992-73128279D120}" name="Nivel de implementación" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{CDF26E8C-8BDB-45C7-A8AC-CA450403947A}" name="Nivel de tamaño de input" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{9DE04076-59E2-45F7-AB89-1679DBAB06B7}" name="Variable de respuesta" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{9EF854CD-267F-48A1-B044-6D953A6CD370}" name="Tratamiento" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1CB5141F-ED68-4E4A-B992-73128279D120}" name="Nivel de implementación" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{CDF26E8C-8BDB-45C7-A8AC-CA450403947A}" name="Nivel de tamaño de input" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{9DE04076-59E2-45F7-AB89-1679DBAB06B7}" name="Variable de respuesta" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9EF854CD-267F-48A1-B044-6D953A6CD370}" name="Tratamiento" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{44AB99E6-EEFD-40B4-B9A1-C12512E4AE86}" name="Media"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1151,13 +1141,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4E96BB97-A6FE-44E7-9C4A-216F05A52774}" name="Tabla2" displayName="Tabla2" ref="H1:L101" totalsRowShown="0" headerRowDxfId="71" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4E96BB97-A6FE-44E7-9C4A-216F05A52774}" name="Tabla2" displayName="Tabla2" ref="H1:L101" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <autoFilter ref="H1:L101" xr:uid="{4E96BB97-A6FE-44E7-9C4A-216F05A52774}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{636BB5AB-CDE5-4EB4-B872-F569A4CAC4CE}" name="Nivel de implementación" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{EFE3C368-D706-42D1-99CB-04760AE34F55}" name="Nivel de tamaño de input" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{CE9FB826-56D5-4298-B91A-8413A59B95CA}" name="Variable de respuesta" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{E2FB43B5-F2A6-4FA0-A263-BEDEE24CCB43}" name="Tratamiento" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{636BB5AB-CDE5-4EB4-B872-F569A4CAC4CE}" name="Nivel de implementación" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{EFE3C368-D706-42D1-99CB-04760AE34F55}" name="Nivel de tamaño de input" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{CE9FB826-56D5-4298-B91A-8413A59B95CA}" name="Variable de respuesta" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{E2FB43B5-F2A6-4FA0-A263-BEDEE24CCB43}" name="Tratamiento" dataDxfId="71"/>
     <tableColumn id="5" xr3:uid="{B87299B3-FE8C-4BB4-BD6D-EE544C5F706D}" name="Media"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1165,13 +1155,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F033E1F1-7E56-4B58-98B0-8EEA5DD03C2A}" name="Tabla3" displayName="Tabla3" ref="A1:E101" totalsRowShown="0" headerRowDxfId="64" dataDxfId="65" tableBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F033E1F1-7E56-4B58-98B0-8EEA5DD03C2A}" name="Tabla3" displayName="Tabla3" ref="A1:E101" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69" tableBorderDxfId="68">
   <autoFilter ref="A1:E101" xr:uid="{F033E1F1-7E56-4B58-98B0-8EEA5DD03C2A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E637EA56-ABF0-4819-84FF-FCA52970C00B}" name="Nivel de implementación" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{7E5E384A-7EA3-46BF-AD8C-670EDE6A2989}" name="Nivel de tamaño de input" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{E2C7C97A-6721-4F5A-AE1E-EE070AE7AAB3}" name="Variable de respuesta" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{6B337EF7-2E0D-4E55-AE2F-1D7A323BB8FB}" name="Tratamiento" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{E637EA56-ABF0-4819-84FF-FCA52970C00B}" name="Nivel de implementación" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{7E5E384A-7EA3-46BF-AD8C-670EDE6A2989}" name="Nivel de tamaño de input" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{E2C7C97A-6721-4F5A-AE1E-EE070AE7AAB3}" name="Variable de respuesta" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{6B337EF7-2E0D-4E55-AE2F-1D7A323BB8FB}" name="Tratamiento" dataDxfId="64"/>
     <tableColumn id="5" xr3:uid="{D336E82D-96F7-479C-9643-A8BF49E4AD20}" name="Media"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1179,13 +1169,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{864199A8-3D4C-434C-A177-69A77D077EAC}" name="Tabla4" displayName="Tabla4" ref="H1:L101" totalsRowShown="0" headerRowDxfId="57" dataDxfId="58" tableBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{864199A8-3D4C-434C-A177-69A77D077EAC}" name="Tabla4" displayName="Tabla4" ref="H1:L101" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
   <autoFilter ref="H1:L101" xr:uid="{864199A8-3D4C-434C-A177-69A77D077EAC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DAEDD491-6084-4CA0-821E-0FDD08408CB1}" name="Nivel de implementación" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{5CE3FDBE-0648-42D8-83A7-CD7F9E50C468}" name="Nivel de tamaño de input" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{C2FBFCEB-B098-40C0-9C9F-D3A9378BCF8A}" name="Variable de respuesta" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{34DE4833-AE00-45E1-9224-CE512FFEB987}" name="Tratamiento" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{DAEDD491-6084-4CA0-821E-0FDD08408CB1}" name="Nivel de implementación" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{5CE3FDBE-0648-42D8-83A7-CD7F9E50C468}" name="Nivel de tamaño de input" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{C2FBFCEB-B098-40C0-9C9F-D3A9378BCF8A}" name="Variable de respuesta" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{34DE4833-AE00-45E1-9224-CE512FFEB987}" name="Tratamiento" dataDxfId="57"/>
     <tableColumn id="5" xr3:uid="{78EE40B2-9AAB-43EA-A343-05ACE7CE6EC0}" name="Media"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1193,13 +1183,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B300AEE4-2E17-41FC-ACC7-D3B2CC1DABAD}" name="Tabla5" displayName="Tabla5" ref="A1:E101" totalsRowShown="0" headerRowDxfId="50" dataDxfId="51" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B300AEE4-2E17-41FC-ACC7-D3B2CC1DABAD}" name="Tabla5" displayName="Tabla5" ref="A1:E101" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
   <autoFilter ref="A1:E101" xr:uid="{B300AEE4-2E17-41FC-ACC7-D3B2CC1DABAD}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DD541608-8BF6-425D-ABF0-44ABFF35E211}" name="Nivel de implementación" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{D35B804B-B220-410C-9B5D-0BD44B4F0B87}" name="Nivel de tamaño de input" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{1B303F50-0CB7-4848-BD55-553592D248E2}" name="Variable de respuesta" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{F5EDE9DE-5D59-454B-BCCF-D9CD846B4B4F}" name="Tratamiento" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{DD541608-8BF6-425D-ABF0-44ABFF35E211}" name="Nivel de implementación" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{D35B804B-B220-410C-9B5D-0BD44B4F0B87}" name="Nivel de tamaño de input" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{1B303F50-0CB7-4848-BD55-553592D248E2}" name="Variable de respuesta" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{F5EDE9DE-5D59-454B-BCCF-D9CD846B4B4F}" name="Tratamiento" dataDxfId="50"/>
     <tableColumn id="5" xr3:uid="{814A9E1F-2A35-4145-8D18-CA822A98FC6C}" name="Media"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1207,13 +1197,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3F0C7AFB-CFD9-4A1C-86CA-1B1205C51815}" name="Tabla6" displayName="Tabla6" ref="H1:L101" totalsRowShown="0" headerRowDxfId="43" dataDxfId="44" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3F0C7AFB-CFD9-4A1C-86CA-1B1205C51815}" name="Tabla6" displayName="Tabla6" ref="H1:L101" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
   <autoFilter ref="H1:L101" xr:uid="{3F0C7AFB-CFD9-4A1C-86CA-1B1205C51815}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{19F72418-E842-48B4-ABD7-66CC865B0C4F}" name="Nivel de implementación" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{59C8491C-B3EF-47E7-957D-7E6856AAEA1E}" name="Nivel de tamaño de input" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{FBC0B327-F83B-4273-8732-439E98875656}" name="Variable de respuesta" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{1B8F2C7E-F49C-428A-A678-38650D4A92FC}" name="Tratamiento" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{19F72418-E842-48B4-ABD7-66CC865B0C4F}" name="Nivel de implementación" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{59C8491C-B3EF-47E7-957D-7E6856AAEA1E}" name="Nivel de tamaño de input" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{FBC0B327-F83B-4273-8732-439E98875656}" name="Variable de respuesta" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{1B8F2C7E-F49C-428A-A678-38650D4A92FC}" name="Tratamiento" dataDxfId="43"/>
     <tableColumn id="5" xr3:uid="{AB323EF9-25AE-4A94-99FA-9664A3C009AD}" name="Media"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1221,14 +1211,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B05EA61F-3EAB-40C1-8111-F5A079571F76}" name="Tabla9" displayName="Tabla9" ref="A1:E101" totalsRowShown="0" headerRowDxfId="36" dataDxfId="37" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B05EA61F-3EAB-40C1-8111-F5A079571F76}" name="Tabla9" displayName="Tabla9" ref="A1:E101" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
   <autoFilter ref="A1:E101" xr:uid="{B05EA61F-3EAB-40C1-8111-F5A079571F76}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CD5CE662-0876-474A-93E2-A26582CDC83D}" name="Nivel de implementación" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{2216A648-CD0D-4CB6-84D1-F6C507CAFD1F}" name="Nivel de tamaño de input" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{C07DDFA2-5B96-4AC2-B374-DD73F697C96A}" name="Variable de respuesta" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{6AE12B80-3208-4C93-BF20-CF9D781F860D}" name="Tratamiento" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{C0303BB5-02CB-4199-BD8E-CD657728ED84}" name="Media" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{CD5CE662-0876-474A-93E2-A26582CDC83D}" name="Nivel de implementación" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{2216A648-CD0D-4CB6-84D1-F6C507CAFD1F}" name="Nivel de tamaño de input" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{C07DDFA2-5B96-4AC2-B374-DD73F697C96A}" name="Variable de respuesta" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{6AE12B80-3208-4C93-BF20-CF9D781F860D}" name="Tratamiento" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{C0303BB5-02CB-4199-BD8E-CD657728ED84}" name="Media" dataDxfId="35">
       <calculatedColumnFormula>AVERAGE(C2:C101)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1237,13 +1227,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{89C7D527-A3D9-4A0F-87C5-5B89619ADDF5}" name="Tabla10" displayName="Tabla10" ref="H1:L101" totalsRowShown="0" headerRowDxfId="29" dataDxfId="30" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{89C7D527-A3D9-4A0F-87C5-5B89619ADDF5}" name="Tabla10" displayName="Tabla10" ref="H1:L101" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="H1:L101" xr:uid="{89C7D527-A3D9-4A0F-87C5-5B89619ADDF5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{234A33E5-DB55-4C8E-8FE5-15AD9CE34A2B}" name="Nivel de implementación" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{0F7D0156-CF08-4AA9-9E6E-5A852C396925}" name="Nivel de tamaño de input" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{6003ADF7-0F8A-42E0-B853-027763CBCD17}" name="Variable de respuesta" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{03D75690-EA98-4FE9-8753-004CF7A745BF}" name="Tratamiento" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{234A33E5-DB55-4C8E-8FE5-15AD9CE34A2B}" name="Nivel de implementación" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{0F7D0156-CF08-4AA9-9E6E-5A852C396925}" name="Nivel de tamaño de input" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{6003ADF7-0F8A-42E0-B853-027763CBCD17}" name="Variable de respuesta" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{03D75690-EA98-4FE9-8753-004CF7A745BF}" name="Tratamiento" dataDxfId="28"/>
     <tableColumn id="5" xr3:uid="{FAEBA4B4-B53C-4E12-8D97-BB0DC3F5139D}" name="Media"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1251,13 +1241,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5A81B83C-570A-49C8-B658-17FB95C63442}" name="Tabla11" displayName="Tabla11" ref="A1:E101" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5A81B83C-570A-49C8-B658-17FB95C63442}" name="Tabla11" displayName="Tabla11" ref="A1:E101" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="A1:E101" xr:uid="{5A81B83C-570A-49C8-B658-17FB95C63442}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{30CD717E-D9DA-4459-B1B5-BE0D4DC4C227}" name="Nivel de implementación" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{06993B07-592F-4563-8AC0-2F7D1B67A188}" name="Nivel de tamaño de input" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{4FB60772-CB53-48DC-80D6-6B00A082C7EF}" name="Variable de respuesta" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{120EE0C0-0F6A-4213-9A7E-9CF03A3E2715}" name="Tratamiento" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{30CD717E-D9DA-4459-B1B5-BE0D4DC4C227}" name="Nivel de implementación" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{06993B07-592F-4563-8AC0-2F7D1B67A188}" name="Nivel de tamaño de input" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{4FB60772-CB53-48DC-80D6-6B00A082C7EF}" name="Variable de respuesta" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{120EE0C0-0F6A-4213-9A7E-9CF03A3E2715}" name="Tratamiento" dataDxfId="21"/>
     <tableColumn id="5" xr3:uid="{D07EC722-2D7D-4A59-BF48-EEC29176743D}" name="Media"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9981,8 +9971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7052C6-DFA2-41D5-996D-B518D4F4DBCE}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17:S20"/>
+    <sheetView topLeftCell="D6" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9994,218 +9984,218 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="E4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="16">
+        <v>100</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.38909999999999978</v>
+      </c>
+      <c r="D5" s="16">
+        <v>3.8909999999999978E-3</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1.260797979797978E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="16">
+        <v>100</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1.1391999999999995</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1.1391999999999996E-2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2.2576670060606109E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B7" s="16">
         <v>100</v>
       </c>
-      <c r="C5" s="19">
-        <v>0.38909999999999978</v>
-      </c>
-      <c r="D5" s="19">
-        <v>3.8909999999999978E-3</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1.260797979797978E-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="C7" s="16">
+        <v>0.92530000000000034</v>
+      </c>
+      <c r="D7" s="16">
+        <v>9.2530000000000043E-3</v>
+      </c>
+      <c r="E7" s="16">
+        <v>9.8352626262626266E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B8" s="16">
         <v>100</v>
       </c>
-      <c r="C6" s="19">
-        <v>1.1391999999999995</v>
-      </c>
-      <c r="D6" s="19">
-        <v>1.1391999999999996E-2</v>
-      </c>
-      <c r="E6" s="19">
-        <v>2.2576670060606109E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="C8" s="16">
+        <v>0.57479999999999953</v>
+      </c>
+      <c r="D8" s="16">
+        <v>5.7479999999999953E-3</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1.2251474747474763E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B9" s="16">
         <v>100</v>
       </c>
-      <c r="C7" s="19">
-        <v>0.92530000000000034</v>
-      </c>
-      <c r="D7" s="19">
-        <v>9.2530000000000043E-3</v>
-      </c>
-      <c r="E7" s="19">
-        <v>9.8352626262626266E-7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="C9" s="16">
+        <v>4.6400000000000006</v>
+      </c>
+      <c r="D9" s="16">
+        <v>4.6400000000000004E-2</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.13505308585858589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B10" s="16">
         <v>100</v>
       </c>
-      <c r="C8" s="19">
-        <v>0.57479999999999953</v>
-      </c>
-      <c r="D8" s="19">
-        <v>5.7479999999999953E-3</v>
-      </c>
-      <c r="E8" s="19">
-        <v>1.2251474747474763E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="C10" s="16">
+        <v>3.1110999999999995</v>
+      </c>
+      <c r="D10" s="16">
+        <v>3.1110999999999996E-2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>3.0420810483838438E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B11" s="16">
         <v>100</v>
       </c>
-      <c r="C9" s="19">
-        <v>4.6400000000000006</v>
-      </c>
-      <c r="D9" s="19">
-        <v>4.6400000000000004E-2</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0.13505308585858589</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="C11" s="16">
+        <v>0.53589999999999993</v>
+      </c>
+      <c r="D11" s="16">
+        <v>5.3589999999999992E-3</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1.3968706060606065E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B12" s="16">
         <v>100</v>
       </c>
-      <c r="C10" s="19">
-        <v>3.1110999999999995</v>
-      </c>
-      <c r="D10" s="19">
-        <v>3.1110999999999996E-2</v>
-      </c>
-      <c r="E10" s="19">
-        <v>3.0420810483838438E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="C12" s="16">
+        <v>0.87899999999999956</v>
+      </c>
+      <c r="D12" s="16">
+        <v>8.7899999999999957E-3</v>
+      </c>
+      <c r="E12" s="16">
+        <v>5.9925959595959639E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B13" s="16">
         <v>100</v>
       </c>
-      <c r="C11" s="19">
-        <v>0.53589999999999993</v>
-      </c>
-      <c r="D11" s="19">
-        <v>5.3589999999999992E-3</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1.3968706060606065E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="C13" s="16">
+        <v>4.3573000000000039</v>
+      </c>
+      <c r="D13" s="16">
+        <v>4.3573000000000042E-2</v>
+      </c>
+      <c r="E13" s="16">
+        <v>6.0633118152525263E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B14" s="16">
         <v>100</v>
       </c>
-      <c r="C12" s="19">
-        <v>0.87899999999999956</v>
-      </c>
-      <c r="D12" s="19">
-        <v>8.7899999999999957E-3</v>
-      </c>
-      <c r="E12" s="19">
-        <v>5.9925959595959639E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="C14" s="16">
+        <v>0.75150000000000039</v>
+      </c>
+      <c r="D14" s="16">
+        <v>7.5150000000000043E-3</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1.7323914141414065E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B15" s="16">
         <v>100</v>
       </c>
-      <c r="C13" s="19">
-        <v>4.3573000000000039</v>
-      </c>
-      <c r="D13" s="19">
-        <v>4.3573000000000042E-2</v>
-      </c>
-      <c r="E13" s="19">
-        <v>6.0633118152525263E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="19">
-        <v>100</v>
-      </c>
-      <c r="C14" s="19">
-        <v>0.75150000000000039</v>
-      </c>
-      <c r="D14" s="19">
-        <v>7.5150000000000043E-3</v>
-      </c>
-      <c r="E14" s="19">
-        <v>1.7323914141414065E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="19">
-        <v>100</v>
-      </c>
-      <c r="C15" s="19">
+      <c r="C15" s="16">
         <v>1.2214000000000009</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="16">
         <v>1.221400000000001E-2</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="16">
         <v>1.8242832323232132E-5</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="20">
         <v>1.1200000000000001</v>
       </c>
       <c r="L15">
@@ -10214,28 +10204,28 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="20">
+      <c r="A16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="17">
         <v>100</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="17">
         <v>6.5174000000000047</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="17">
         <v>6.5174000000000051E-2</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="17">
         <v>0.22110553568080799</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O17" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
@@ -10251,7 +10241,7 @@
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -10260,26 +10250,26 @@
       <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="D20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="E20" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="F20" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="G20" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>38</v>
       </c>
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
@@ -10288,68 +10278,68 @@
       <c r="S20" s="24"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="16">
+        <v>0.46164779526654343</v>
+      </c>
+      <c r="C21" s="16">
+        <v>11</v>
+      </c>
+      <c r="D21" s="16">
+        <v>4.1967981387867587E-2</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1.1201866660648054</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.34116374451048753</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1.7966958780782267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="16">
+        <v>44.50861932140004</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1188</v>
+      </c>
+      <c r="D22" s="16">
+        <v>3.7465167778956261E-2</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="19">
-        <v>0.46164779526654343</v>
-      </c>
-      <c r="C21" s="19">
-        <v>11</v>
-      </c>
-      <c r="D21" s="19">
-        <v>4.1967981387867587E-2</v>
-      </c>
-      <c r="E21" s="19">
-        <v>1.1201866660648054</v>
-      </c>
-      <c r="F21" s="19">
-        <v>0.34116374451048753</v>
-      </c>
-      <c r="G21" s="19">
-        <v>1.7966958780782267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="19">
-        <v>44.50861932140004</v>
-      </c>
-      <c r="C22" s="19">
-        <v>1188</v>
-      </c>
-      <c r="D22" s="19">
-        <v>3.7465167778956261E-2</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="20">
+      <c r="B24" s="17">
         <v>44.970267116666584</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="17">
         <v>1199</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10357,18 +10347,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED72AF0-6680-42BD-92B0-3A622C3F85F1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -18814,7 +18792,7 @@
     <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -21481,7 +21459,7 @@
     <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -24148,7 +24126,7 @@
     <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -26815,7 +26793,7 @@
     <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -29482,7 +29460,7 @@
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -32149,7 +32127,7 @@
     <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -34802,8 +34780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FF340B-9CBA-4646-BBF0-A543BB1154FF}">
   <dimension ref="B2:P109"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:P109"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34813,3927 +34791,3927 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="H2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="H2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G7" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G7" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="H7">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="H9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="I9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="J9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="K9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="L9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="M9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="N9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="O9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="P9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="16" cm="1">
+      <c r="E10" s="13" cm="1">
         <f t="array" ref="E10:E109">'Trat 1 y 7'!$C$2:$C$101</f>
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="F10" s="17" cm="1">
+      <c r="F10" s="14" cm="1">
         <f t="array" ref="F10:F109">'Trat 2 y 8'!$C$2:$C$101</f>
         <v>0.48159999999999997</v>
       </c>
-      <c r="G10" s="17" cm="1">
+      <c r="G10" s="14" cm="1">
         <f t="array" ref="G10:G109">'Trat 3 y 9'!$C$2:$C$101</f>
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="H10" s="17" cm="1">
+      <c r="H10" s="14" cm="1">
         <f t="array" ref="H10:H109">'Trat 4 y 10'!$C$2:$C$101</f>
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="I10" s="17" cm="1">
+      <c r="I10" s="14" cm="1">
         <f t="array" ref="I10:I109">'Trat 5 y 11'!$C$2:$C$101</f>
         <v>3.6846000000000001</v>
       </c>
-      <c r="J10" s="18" cm="1">
+      <c r="J10" s="15" cm="1">
         <f t="array" ref="J10:J109">'Trat 6 y 12'!$C$2:$C$101</f>
         <v>1.44E-2</v>
       </c>
-      <c r="K10" s="16" cm="1">
+      <c r="K10" s="13" cm="1">
         <f t="array" ref="K10:K109">'Trat 1 y 7'!$J$2:$J$101</f>
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="L10" s="17" cm="1">
+      <c r="L10" s="14" cm="1">
         <f t="array" ref="L10:L109">'Trat 2 y 8'!$J$2:$J$101</f>
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="M10" s="17" cm="1">
+      <c r="M10" s="14" cm="1">
         <f t="array" ref="M10:M109">'Trat 3 y 9'!$J$2:$J$101</f>
         <v>0.61099999999999999</v>
       </c>
-      <c r="N10" s="17" cm="1">
+      <c r="N10" s="14" cm="1">
         <f t="array" ref="N10:N109">'Trat 4 y 10'!$J$2:$J$101</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="O10" s="17" cm="1">
+      <c r="O10" s="14" cm="1">
         <f t="array" ref="O10:O109">'Trat 5 y 11'!$J$2:$J$101</f>
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="P10" s="18" cm="1">
+      <c r="P10" s="15" cm="1">
         <f t="array" ref="P10:P109">'Trat 6 y 12'!$J$2:$J$101</f>
         <v>4.7195</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="16">
+      <c r="E11" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="14">
         <v>1.14E-2</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="14">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="14">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="14">
         <v>1.32E-2</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="13">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="14">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="14">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="14">
         <v>2.07E-2</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="14">
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="16">
+      <c r="E12" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="14">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="14">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="14">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="14">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="14">
         <v>5.16E-2</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="14">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="14">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="14">
         <v>1.38E-2</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E13" s="16">
+      <c r="E13" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="14">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="14">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="14">
         <v>6.3E-3</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="14">
         <v>5.33E-2</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="14">
         <v>5.3E-3</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="14">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E14" s="16">
+      <c r="E14" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="14">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="14">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="14">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="14">
         <v>1.7578</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="13">
         <v>6.6E-3</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="14">
         <v>6.3E-3</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="14">
         <v>5.3E-3</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O14" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="14">
         <v>1.32E-2</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="16">
+      <c r="E15" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="14">
         <v>1.04E-2</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="14">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="14">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="13">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="14">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="14">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="14">
         <v>1.35E-2</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E16" s="16">
+      <c r="E16" s="13">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="14">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="14">
         <v>1.32E-2</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="13">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="14">
         <v>2.4047999999999998</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="14">
         <v>6.6E-3</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="14">
         <v>1.23E-2</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="14">
         <v>1.32E-2</v>
       </c>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="16">
+      <c r="E17" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="14">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="14">
         <v>5.3E-3</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="14">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="13">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="14">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="14">
         <v>1.18E-2</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="14">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="14">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="14">
         <v>2.3400000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="16">
+      <c r="E18" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="14">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="14">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="14">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="14">
         <v>1.35E-2</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="13">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="14">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="14">
         <v>1.09E-2</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="14">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="14">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="P18" s="17">
+      <c r="P18" s="14">
         <v>1.5900000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="16">
+      <c r="E19" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="14">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="13">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="14">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="14">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="14">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="P19" s="17">
+      <c r="P19" s="14">
         <v>1.44E-2</v>
       </c>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E20" s="16">
+      <c r="E20" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="14">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="14">
         <v>1.32E-2</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="13">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="14">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="14">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="14">
         <v>5.3E-3</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="14">
         <v>1.03E-2</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P20" s="14">
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E21" s="16">
+      <c r="E21" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="14">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="13">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="14">
         <v>6.3E-3</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="14">
         <v>0.1104</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="14">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="14">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P21" s="14">
         <v>1.49E-2</v>
       </c>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="16">
+      <c r="E22" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="14">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="14">
         <v>1.35E-2</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="13">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="14">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="14">
         <v>1.18E-2</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N22" s="14">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="14">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="P22" s="17">
+      <c r="P22" s="14">
         <v>1.5900000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="16">
+      <c r="E23" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="14">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="14">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="13">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="14">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="14">
         <v>1.32E-2</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="14">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O23" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P23" s="14">
         <v>2.0199999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="16">
+      <c r="E24" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="14">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="13">
         <v>5.3E-3</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="14">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="14">
         <v>1.09E-2</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N24" s="14">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="O24" s="17">
+      <c r="O24" s="14">
         <v>2.01E-2</v>
       </c>
-      <c r="P24" s="17">
+      <c r="P24" s="14">
         <v>2.6499999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E25" s="16">
+      <c r="E25" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="14">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="14">
         <v>1.32E-2</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="13">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="14">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="14">
         <v>1.06E-2</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N25" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="O25" s="17">
+      <c r="O25" s="14">
         <v>1.18E-2</v>
       </c>
-      <c r="P25" s="17">
+      <c r="P25" s="14">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E26" s="16">
+      <c r="E26" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="14">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="14">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="14">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="14">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="13">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="14">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="14">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="14">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O26" s="14">
         <v>1.24E-2</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P26" s="14">
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E27" s="16">
+      <c r="E27" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="14">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="14">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="14">
         <v>1.32E-2</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="13">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="14">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="14">
         <v>1.14E-2</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N27" s="14">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O27" s="14">
         <v>1.23E-2</v>
       </c>
-      <c r="P27" s="17">
+      <c r="P27" s="14">
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E28" s="16">
+      <c r="E28" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="14">
         <v>1.17E-2</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="14">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="14">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M28" s="14">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="14">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O28" s="14">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P28" s="14">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E29" s="16">
+      <c r="E29" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="14">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="14">
         <v>1.11E-2</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="14">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="14">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="13">
         <v>5.3E-3</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="14">
         <v>1.09E-2</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="14">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O29" s="14">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P29" s="14">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="16">
+      <c r="E30" s="13">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="14">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="14">
         <v>1.04E-2</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="14">
         <v>1.06E-2</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="14">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="14">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="14">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M30" s="14">
         <v>1.15E-2</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O30" s="14">
         <v>0.01</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P30" s="14">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E31" s="16">
+      <c r="E31" s="13">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="14">
         <v>1.52E-2</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="14">
         <v>1.06E-2</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="14">
         <v>0.01</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="14">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="14">
         <v>1.38E-2</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="14">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O31" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P31" s="14">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E32" s="16">
+      <c r="E32" s="13">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="14">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="14">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="14">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="14">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="13">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="14">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="14">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="14">
         <v>5.3E-3</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O32" s="14">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="P32" s="17">
+      <c r="P32" s="14">
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E33" s="16">
+      <c r="E33" s="13">
         <v>4.3E-3</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="14">
         <v>0.01</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="14">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="14">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="14">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="14">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="14">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O33" s="14">
         <v>2.53E-2</v>
       </c>
-      <c r="P33" s="17">
+      <c r="P33" s="14">
         <v>1.35E-2</v>
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E34" s="16">
+      <c r="E34" s="13">
         <v>4.3E-3</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="14">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="14">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="14">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="14">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="14">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="14">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O34" s="14">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="P34" s="17">
+      <c r="P34" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="14">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="14">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="14">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="14">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="14">
         <v>1.49E-2</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="13">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="14">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M35" s="14">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N35" s="14">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="O35" s="17">
+      <c r="O35" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="P35" s="17">
+      <c r="P35" s="14">
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E36" s="16">
+      <c r="E36" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="14">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="14">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="14">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="14">
         <v>1.43E-2</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="14">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M36" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="14">
         <v>2.8299999999999999E-2</v>
       </c>
-      <c r="O36" s="17">
+      <c r="O36" s="14">
         <v>1.17E-2</v>
       </c>
-      <c r="P36" s="17">
+      <c r="P36" s="14">
         <v>1.6299999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E37" s="16">
+      <c r="E37" s="13">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="14">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="14">
         <v>1.01E-2</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="14">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="14">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="14">
         <v>1.4E-2</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K37" s="13">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="14">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M37" s="14">
         <v>1.26E-2</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="O37" s="17">
+      <c r="O37" s="14">
         <v>1.17E-2</v>
       </c>
-      <c r="P37" s="17">
+      <c r="P37" s="14">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E38" s="16">
+      <c r="E38" s="13">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="14">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="14">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="14">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="14">
         <v>1.01E-2</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="14">
         <v>1.43E-2</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K38" s="13">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="14">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M38" s="14">
         <v>1.18E-2</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N38" s="14">
         <v>6.3E-3</v>
       </c>
-      <c r="O38" s="17">
+      <c r="O38" s="14">
         <v>1.18E-2</v>
       </c>
-      <c r="P38" s="17">
+      <c r="P38" s="14">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E39" s="16">
+      <c r="E39" s="13">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="14">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="14">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="14">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="14">
         <v>1.03E-2</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="14">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K39" s="13">
         <v>5.3E-3</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="14">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="14">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N39" s="14">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="O39" s="17">
+      <c r="O39" s="14">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="P39" s="17">
+      <c r="P39" s="14">
         <v>1.8100000000000002E-2</v>
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="16">
+      <c r="E40" s="13">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="14">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="14">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="14">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="14">
         <v>1.01E-2</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="14">
         <v>1.4E-2</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K40" s="13">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L40" s="14">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="M40" s="17">
+      <c r="M40" s="14">
         <v>1.03E-2</v>
       </c>
-      <c r="N40" s="17">
+      <c r="N40" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O40" s="14">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="P40" s="17">
+      <c r="P40" s="14">
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="16">
+      <c r="E41" s="13">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="14">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="14">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="14">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="14">
         <v>1.43E-2</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K41" s="13">
         <v>5.3E-3</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L41" s="14">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M41" s="14">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="N41" s="17">
+      <c r="N41" s="14">
         <v>6.6E-3</v>
       </c>
-      <c r="O41" s="17">
+      <c r="O41" s="14">
         <v>1.18E-2</v>
       </c>
-      <c r="P41" s="17">
+      <c r="P41" s="14">
         <v>1.6299999999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E42" s="16">
+      <c r="E42" s="13">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="14">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="14">
         <v>1.01E-2</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="14">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="14">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="14">
         <v>1.43E-2</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K42" s="13">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="14">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M42" s="14">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N42" s="14">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O42" s="14">
         <v>2.07E-2</v>
       </c>
-      <c r="P42" s="17">
+      <c r="P42" s="14">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E43" s="16">
+      <c r="E43" s="13">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="14">
         <v>6.3E-3</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="14">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="14">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="14">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="14">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="13">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L43" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M43" s="14">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="N43" s="17">
+      <c r="N43" s="14">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="O43" s="17">
+      <c r="O43" s="14">
         <v>1.06E-2</v>
       </c>
-      <c r="P43" s="17">
+      <c r="P43" s="14">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E44" s="16">
+      <c r="E44" s="13">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="14">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="14">
         <v>1.04E-2</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="14">
         <v>1.15E-2</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="14">
         <v>0.01</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J44" s="14">
         <v>1.41E-2</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K44" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="14">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="14">
         <v>1.11E-2</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N44" s="14">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O44" s="14">
         <v>2.3E-2</v>
       </c>
-      <c r="P44" s="17">
+      <c r="P44" s="14">
         <v>1.66E-2</v>
       </c>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E45" s="16">
+      <c r="E45" s="13">
         <v>4.3E-3</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="14">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="14">
         <v>0.01</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="14">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="14">
         <v>1.03E-2</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="14">
         <v>1.41E-2</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="14">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M45" s="14">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="N45" s="17">
+      <c r="N45" s="14">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="O45" s="17">
+      <c r="O45" s="14">
         <v>1.15E-2</v>
       </c>
-      <c r="P45" s="17">
+      <c r="P45" s="14">
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E46" s="16">
+      <c r="E46" s="13">
         <v>4.3E-3</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="14">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="14">
         <v>1.03E-2</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="14">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="14">
         <v>1.44E-2</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K46" s="13">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L46" s="14">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M46" s="14">
         <v>1.06E-2</v>
       </c>
-      <c r="N46" s="17">
+      <c r="N46" s="14">
         <v>1.11E-2</v>
       </c>
-      <c r="O46" s="17">
+      <c r="O46" s="14">
         <v>1.14E-2</v>
       </c>
-      <c r="P46" s="17">
+      <c r="P46" s="14">
         <v>1.44E-2</v>
       </c>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E47" s="16">
+      <c r="E47" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="14">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="14">
         <v>1.18E-2</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="14">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="14">
         <v>1.46E-2</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K47" s="13">
         <v>5.3E-3</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="14">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M47" s="14">
         <v>1.11E-2</v>
       </c>
-      <c r="N47" s="17">
+      <c r="N47" s="14">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="O47" s="17">
+      <c r="O47" s="14">
         <v>1.15E-2</v>
       </c>
-      <c r="P47" s="17">
+      <c r="P47" s="14">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E48" s="16">
+      <c r="E48" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="14">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="14">
         <v>1.04E-2</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="14">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J48" s="14">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K48" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L48" s="14">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M48" s="14">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="N48" s="17">
+      <c r="N48" s="14">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="O48" s="17">
+      <c r="O48" s="14">
         <v>1.15E-2</v>
       </c>
-      <c r="P48" s="17">
+      <c r="P48" s="14">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E49" s="16">
+      <c r="E49" s="13">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="14">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="14">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="14">
         <v>0.01</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="14">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K49" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L49" s="14">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M49" s="14">
         <v>1.06E-2</v>
       </c>
-      <c r="N49" s="17">
+      <c r="N49" s="14">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="O49" s="17">
+      <c r="O49" s="14">
         <v>1.17E-2</v>
       </c>
-      <c r="P49" s="17">
+      <c r="P49" s="14">
         <v>1.67E-2</v>
       </c>
     </row>
     <row r="50" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E50" s="16">
+      <c r="E50" s="13">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="14">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="14">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="14">
         <v>6.3E-3</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="14">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J50" s="14">
         <v>1.44E-2</v>
       </c>
-      <c r="K50" s="16">
+      <c r="K50" s="13">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L50" s="14">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M50" s="14">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="N50" s="17">
+      <c r="N50" s="14">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="O50" s="17">
+      <c r="O50" s="14">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="P50" s="17">
+      <c r="P50" s="14">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E51" s="16">
+      <c r="E51" s="13">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="14">
         <v>6.6E-3</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="14">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="14">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="14">
         <v>1.04E-2</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="14">
         <v>1.41E-2</v>
       </c>
-      <c r="K51" s="16">
+      <c r="K51" s="13">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L51" s="14">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="M51" s="17">
+      <c r="M51" s="14">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="N51" s="17">
+      <c r="N51" s="14">
         <v>6.6E-3</v>
       </c>
-      <c r="O51" s="17">
+      <c r="O51" s="14">
         <v>2.3E-2</v>
       </c>
-      <c r="P51" s="17">
+      <c r="P51" s="14">
         <v>1.7299999999999999E-2</v>
       </c>
     </row>
     <row r="52" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E52" s="16">
+      <c r="E52" s="13">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="14">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="14">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="14">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="14">
         <v>1.43E-2</v>
       </c>
-      <c r="K52" s="16">
+      <c r="K52" s="13">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="14">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M52" s="14">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="N52" s="17">
+      <c r="N52" s="14">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="O52" s="17">
+      <c r="O52" s="14">
         <v>1.37E-2</v>
       </c>
-      <c r="P52" s="17">
+      <c r="P52" s="14">
         <v>1.5900000000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E53" s="16">
+      <c r="E53" s="13">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="14">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="14">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="14">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="14">
         <v>1.04E-2</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="14">
         <v>1.41E-2</v>
       </c>
-      <c r="K53" s="16">
+      <c r="K53" s="13">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L53" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M53" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="N53" s="17">
+      <c r="N53" s="14">
         <v>6.3E-3</v>
       </c>
-      <c r="O53" s="17">
+      <c r="O53" s="14">
         <v>1.26E-2</v>
       </c>
-      <c r="P53" s="17">
+      <c r="P53" s="14">
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E54" s="16">
+      <c r="E54" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="14">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="14">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="14">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J54" s="14">
         <v>1.4E-2</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K54" s="13">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L54" s="14">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M54" s="14">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="N54" s="17">
+      <c r="N54" s="14">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="O54" s="17">
+      <c r="O54" s="14">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="P54" s="17">
+      <c r="P54" s="14">
         <v>1.4200000000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E55" s="16">
+      <c r="E55" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="14">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="14">
         <v>0.01</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="14">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="14">
         <v>0.01</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J55" s="14">
         <v>1.32E-2</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K55" s="13">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="L55" s="17">
+      <c r="L55" s="14">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="M55" s="17">
+      <c r="M55" s="14">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="N55" s="17">
+      <c r="N55" s="14">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="O55" s="17">
+      <c r="O55" s="14">
         <v>1.41E-2</v>
       </c>
-      <c r="P55" s="17">
+      <c r="P55" s="14">
         <v>1.37E-2</v>
       </c>
     </row>
     <row r="56" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E56" s="16">
+      <c r="E56" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="14">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="14">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="14">
         <v>1.01E-2</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K56" s="13">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L56" s="14">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M56" s="14">
         <v>1.17E-2</v>
       </c>
-      <c r="N56" s="17">
+      <c r="N56" s="14">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="O56" s="17">
+      <c r="O56" s="14">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="P56" s="17">
+      <c r="P56" s="14">
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
     <row r="57" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E57" s="16">
+      <c r="E57" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="14">
         <v>6.3E-3</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="14">
         <v>1.03E-2</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="14">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="14">
         <v>0.01</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J57" s="14">
         <v>1.35E-2</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K57" s="13">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="14">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M57" s="14">
         <v>1.06E-2</v>
       </c>
-      <c r="N57" s="17">
+      <c r="N57" s="14">
         <v>5.3E-3</v>
       </c>
-      <c r="O57" s="17">
+      <c r="O57" s="14">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="P57" s="17">
+      <c r="P57" s="14">
         <v>1.47E-2</v>
       </c>
     </row>
     <row r="58" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E58" s="16">
+      <c r="E58" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="14">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="14">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="14">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K58" s="13">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L58" s="14">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M58" s="14">
         <v>1.09E-2</v>
       </c>
-      <c r="N58" s="17">
+      <c r="N58" s="14">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="O58" s="17">
+      <c r="O58" s="14">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="P58" s="17">
+      <c r="P58" s="14">
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
     <row r="59" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E59" s="16">
+      <c r="E59" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="14">
         <v>6.3E-3</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="14">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="14">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="14">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="14">
         <v>1.34E-2</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K59" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L59" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M59" s="14">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="N59" s="17">
+      <c r="N59" s="14">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="O59" s="17">
+      <c r="O59" s="14">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="P59" s="17">
+      <c r="P59" s="14">
         <v>2.58E-2</v>
       </c>
     </row>
     <row r="60" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E60" s="16">
+      <c r="E60" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="14">
         <v>6.3E-3</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="14">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="14">
         <v>1.04E-2</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K60" s="13">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="L60" s="17">
+      <c r="L60" s="14">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M60" s="14">
         <v>1.15E-2</v>
       </c>
-      <c r="N60" s="17">
+      <c r="N60" s="14">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="O60" s="17">
+      <c r="O60" s="14">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="P60" s="17">
+      <c r="P60" s="14">
         <v>3.0499999999999999E-2</v>
       </c>
     </row>
     <row r="61" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E61" s="16">
+      <c r="E61" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G61" s="14">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="14">
         <v>1.03E-2</v>
       </c>
-      <c r="J61" s="17">
+      <c r="J61" s="14">
         <v>1.32E-2</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K61" s="13">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="L61" s="17">
+      <c r="L61" s="14">
         <v>6.3E-3</v>
       </c>
-      <c r="M61" s="17">
+      <c r="M61" s="14">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="N61" s="17">
+      <c r="N61" s="14">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="O61" s="17">
+      <c r="O61" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="P61" s="17">
+      <c r="P61" s="14">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="62" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E62" s="16">
+      <c r="E62" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="14">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="14">
         <v>1.01E-2</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="14">
         <v>1.03E-2</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J62" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K62" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="L62" s="17">
+      <c r="L62" s="14">
         <v>6.3E-3</v>
       </c>
-      <c r="M62" s="17">
+      <c r="M62" s="14">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="N62" s="17">
+      <c r="N62" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="O62" s="17">
+      <c r="O62" s="14">
         <v>1.03E-2</v>
       </c>
-      <c r="P62" s="17">
+      <c r="P62" s="14">
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
     <row r="63" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E63" s="16">
+      <c r="E63" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="14">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H63" s="14">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="14">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="J63" s="17">
+      <c r="J63" s="14">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K63" s="13">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="L63" s="17">
+      <c r="L63" s="14">
         <v>6.3E-3</v>
       </c>
-      <c r="M63" s="17">
+      <c r="M63" s="14">
         <v>1.01E-2</v>
       </c>
-      <c r="N63" s="17">
+      <c r="N63" s="14">
         <v>5.3E-3</v>
       </c>
-      <c r="O63" s="17">
+      <c r="O63" s="14">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="P63" s="17">
+      <c r="P63" s="14">
         <v>1.34E-2</v>
       </c>
     </row>
     <row r="64" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E64" s="16">
+      <c r="E64" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="14">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="14">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="14">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J64" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K64" s="16">
+      <c r="K64" s="13">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="L64" s="17">
+      <c r="L64" s="14">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M64" s="14">
         <v>1.01E-2</v>
       </c>
-      <c r="N64" s="17">
+      <c r="N64" s="14">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="O64" s="17">
+      <c r="O64" s="14">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="P64" s="17">
+      <c r="P64" s="14">
         <v>1.44E-2</v>
       </c>
     </row>
     <row r="65" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E65" s="16">
+      <c r="E65" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G65" s="14">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H65" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I65" s="14">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="J65" s="17">
+      <c r="J65" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K65" s="16">
+      <c r="K65" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L65" s="17">
+      <c r="L65" s="14">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="M65" s="17">
+      <c r="M65" s="14">
         <v>1.01E-2</v>
       </c>
-      <c r="N65" s="17">
+      <c r="N65" s="14">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="O65" s="17">
+      <c r="O65" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="P65" s="17">
+      <c r="P65" s="14">
         <v>1.32E-2</v>
       </c>
     </row>
     <row r="66" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E66" s="16">
+      <c r="E66" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="14">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="14">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H66" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I66" s="14">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="J66" s="17">
+      <c r="J66" s="14">
         <v>1.37E-2</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K66" s="13">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="L66" s="17">
+      <c r="L66" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="M66" s="17">
+      <c r="M66" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="N66" s="17">
+      <c r="N66" s="14">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="O66" s="17">
+      <c r="O66" s="14">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="P66" s="17">
+      <c r="P66" s="14">
         <v>1.41E-2</v>
       </c>
     </row>
     <row r="67" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E67" s="16">
+      <c r="E67" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G67" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H67" s="14">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I67" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J67" s="17">
+      <c r="J67" s="14">
         <v>1.32E-2</v>
       </c>
-      <c r="K67" s="16">
+      <c r="K67" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="L67" s="17">
+      <c r="L67" s="14">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="M67" s="17">
+      <c r="M67" s="14">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="N67" s="17">
+      <c r="N67" s="14">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="O67" s="17">
+      <c r="O67" s="14">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="P67" s="17">
+      <c r="P67" s="14">
         <v>1.34E-2</v>
       </c>
     </row>
     <row r="68" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E68" s="16">
+      <c r="E68" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G68" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H68" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I68" s="14">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="J68" s="17">
+      <c r="J68" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K68" s="13">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="L68" s="17">
+      <c r="L68" s="14">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="M68" s="17">
+      <c r="M68" s="14">
         <v>1.2E-2</v>
       </c>
-      <c r="N68" s="17">
+      <c r="N68" s="14">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="O68" s="17">
+      <c r="O68" s="14">
         <v>0.01</v>
       </c>
-      <c r="P68" s="17">
+      <c r="P68" s="14">
         <v>1.4200000000000001E-2</v>
       </c>
     </row>
     <row r="69" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E69" s="16">
+      <c r="E69" s="13">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G69" s="14">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H69" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J69" s="17">
+      <c r="J69" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K69" s="16">
+      <c r="K69" s="13">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="L69" s="17">
+      <c r="L69" s="14">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="M69" s="17">
+      <c r="M69" s="14">
         <v>1.17E-2</v>
       </c>
-      <c r="N69" s="17">
+      <c r="N69" s="14">
         <v>5.3E-3</v>
       </c>
-      <c r="O69" s="17">
+      <c r="O69" s="14">
         <v>1.06E-2</v>
       </c>
-      <c r="P69" s="17">
+      <c r="P69" s="14">
         <v>1.37E-2</v>
       </c>
     </row>
     <row r="70" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E70" s="16">
+      <c r="E70" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G70" s="14">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H70" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I70" s="14">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="J70" s="17">
+      <c r="J70" s="14">
         <v>1.34E-2</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K70" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="L70" s="17">
+      <c r="L70" s="14">
         <v>6.3E-3</v>
       </c>
-      <c r="M70" s="17">
+      <c r="M70" s="14">
         <v>1.04E-2</v>
       </c>
-      <c r="N70" s="17">
+      <c r="N70" s="14">
         <v>1.37E-2</v>
       </c>
-      <c r="O70" s="17">
+      <c r="O70" s="14">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="P70" s="17">
+      <c r="P70" s="14">
         <v>1.43E-2</v>
       </c>
     </row>
     <row r="71" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E71" s="16">
+      <c r="E71" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G71" s="14">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H71" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I71" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J71" s="17">
+      <c r="J71" s="14">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="K71" s="16">
+      <c r="K71" s="13">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="L71" s="17">
+      <c r="L71" s="14">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="M71" s="17">
+      <c r="M71" s="14">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="N71" s="17">
+      <c r="N71" s="14">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="O71" s="17">
+      <c r="O71" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="P71" s="17">
+      <c r="P71" s="14">
         <v>1.4200000000000001E-2</v>
       </c>
     </row>
     <row r="72" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E72" s="16">
+      <c r="E72" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G72" s="14">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="H72" s="17">
+      <c r="H72" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I72" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J72" s="17">
+      <c r="J72" s="14">
         <v>1.32E-2</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K72" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="L72" s="17">
+      <c r="L72" s="14">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="M72" s="17">
+      <c r="M72" s="14">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="N72" s="17">
+      <c r="N72" s="14">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="O72" s="17">
+      <c r="O72" s="14">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="P72" s="17">
+      <c r="P72" s="14">
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
     <row r="73" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E73" s="16">
+      <c r="E73" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="14">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G73" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H73" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I73" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J73" s="17">
+      <c r="J73" s="14">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="K73" s="16">
+      <c r="K73" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L73" s="17">
+      <c r="L73" s="14">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="M73" s="17">
+      <c r="M73" s="14">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="N73" s="17">
+      <c r="N73" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="O73" s="17">
+      <c r="O73" s="14">
         <v>1.21E-2</v>
       </c>
-      <c r="P73" s="17">
+      <c r="P73" s="14">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="74" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E74" s="16">
+      <c r="E74" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G74" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H74" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I74" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J74" s="17">
+      <c r="J74" s="14">
         <v>1.35E-2</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K74" s="13">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="L74" s="17">
+      <c r="L74" s="14">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="M74" s="17">
+      <c r="M74" s="14">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="N74" s="17">
+      <c r="N74" s="14">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="O74" s="17">
+      <c r="O74" s="14">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="P74" s="17">
+      <c r="P74" s="14">
         <v>1.54E-2</v>
       </c>
     </row>
     <row r="75" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E75" s="16">
+      <c r="E75" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F75" s="14">
         <v>6.6E-3</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G75" s="14">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H75" s="14">
         <v>5.3E-3</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I75" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J75" s="17">
+      <c r="J75" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K75" s="13">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="L75" s="17">
+      <c r="L75" s="14">
         <v>2.64E-2</v>
       </c>
-      <c r="M75" s="17">
+      <c r="M75" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="N75" s="17">
+      <c r="N75" s="14">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="O75" s="17">
+      <c r="O75" s="14">
         <v>1.03E-2</v>
       </c>
-      <c r="P75" s="17">
+      <c r="P75" s="14">
         <v>1.4500000000000001E-2</v>
       </c>
     </row>
     <row r="76" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E76" s="16">
+      <c r="E76" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F76" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G76" s="14">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H76" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I76" s="14">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="J76" s="17">
+      <c r="J76" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K76" s="16">
+      <c r="K76" s="13">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="L76" s="17">
+      <c r="L76" s="14">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="M76" s="17">
+      <c r="M76" s="14">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="N76" s="17">
+      <c r="N76" s="14">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="O76" s="17">
+      <c r="O76" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="P76" s="17">
+      <c r="P76" s="14">
         <v>1.43E-2</v>
       </c>
     </row>
     <row r="77" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E77" s="16">
+      <c r="E77" s="13">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="14">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G77" s="14">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="H77" s="17">
+      <c r="H77" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I77" s="17">
+      <c r="I77" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J77" s="17">
+      <c r="J77" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K77" s="16">
+      <c r="K77" s="13">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="L77" s="17">
+      <c r="L77" s="14">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="M77" s="17">
+      <c r="M77" s="14">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="N77" s="17">
+      <c r="N77" s="14">
         <v>1.4E-2</v>
       </c>
-      <c r="O77" s="17">
+      <c r="O77" s="14">
         <v>1.01E-2</v>
       </c>
-      <c r="P77" s="17">
+      <c r="P77" s="14">
         <v>1.44E-2</v>
       </c>
     </row>
     <row r="78" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E78" s="16">
+      <c r="E78" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F78" s="14">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G78" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H78" s="14">
         <v>5.3E-3</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I78" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J78" s="17">
+      <c r="J78" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K78" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="L78" s="17">
+      <c r="L78" s="14">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="M78" s="17">
+      <c r="M78" s="14">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="N78" s="17">
+      <c r="N78" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="O78" s="17">
+      <c r="O78" s="14">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="P78" s="17">
+      <c r="P78" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="79" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E79" s="16">
+      <c r="E79" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F79" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G79" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H79" s="14">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I79" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J79" s="17">
+      <c r="J79" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K79" s="16">
+      <c r="K79" s="13">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="L79" s="17">
+      <c r="L79" s="14">
         <v>1.23E-2</v>
       </c>
-      <c r="M79" s="17">
+      <c r="M79" s="14">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="N79" s="17">
+      <c r="N79" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="O79" s="17">
+      <c r="O79" s="14">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="P79" s="17">
+      <c r="P79" s="14">
         <v>1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="80" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E80" s="16">
+      <c r="E80" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F80" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G80" s="14">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H80" s="14">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I80" s="14">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="J80" s="17">
+      <c r="J80" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K80" s="16">
+      <c r="K80" s="13">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="L80" s="17">
+      <c r="L80" s="14">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="M80" s="17">
+      <c r="M80" s="14">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="N80" s="17">
+      <c r="N80" s="14">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="O80" s="17">
+      <c r="O80" s="14">
         <v>1.26E-2</v>
       </c>
-      <c r="P80" s="17">
+      <c r="P80" s="14">
         <v>1.6899999999999998E-2</v>
       </c>
     </row>
     <row r="81" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E81" s="16">
+      <c r="E81" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F81" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G81" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H81" s="14">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I81" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J81" s="17">
+      <c r="J81" s="14">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="K81" s="16">
+      <c r="K81" s="13">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="L81" s="17">
+      <c r="L81" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="M81" s="17">
+      <c r="M81" s="14">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="N81" s="17">
+      <c r="N81" s="14">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="O81" s="17">
+      <c r="O81" s="14">
         <v>1.37E-2</v>
       </c>
-      <c r="P81" s="17">
+      <c r="P81" s="14">
         <v>1.8200000000000001E-2</v>
       </c>
     </row>
     <row r="82" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E82" s="16">
+      <c r="E82" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F82" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G82" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H82" s="14">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I82" s="14">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="J82" s="17">
+      <c r="J82" s="14">
         <v>1.43E-2</v>
       </c>
-      <c r="K82" s="16">
+      <c r="K82" s="13">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="L82" s="17">
+      <c r="L82" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="M82" s="17">
+      <c r="M82" s="14">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="N82" s="17">
+      <c r="N82" s="14">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="O82" s="17">
+      <c r="O82" s="14">
         <v>1.2E-2</v>
       </c>
-      <c r="P82" s="17">
+      <c r="P82" s="14">
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
     <row r="83" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E83" s="16">
+      <c r="E83" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F83" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G83" s="17">
+      <c r="G83" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H83" s="17">
+      <c r="H83" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I83" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J83" s="17">
+      <c r="J83" s="14">
         <v>1.32E-2</v>
       </c>
-      <c r="K83" s="16">
+      <c r="K83" s="13">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="L83" s="17">
+      <c r="L83" s="14">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="M83" s="17">
+      <c r="M83" s="14">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="N83" s="17">
+      <c r="N83" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="O83" s="17">
+      <c r="O83" s="14">
         <v>0.01</v>
       </c>
-      <c r="P83" s="17">
+      <c r="P83" s="14">
         <v>1.5699999999999999E-2</v>
       </c>
     </row>
     <row r="84" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E84" s="16">
+      <c r="E84" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F84" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G84" s="14">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H84" s="14">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I84" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J84" s="17">
+      <c r="J84" s="14">
         <v>1.29E-2</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K84" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="L84" s="17">
+      <c r="L84" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="M84" s="17">
+      <c r="M84" s="14">
         <v>1.17E-2</v>
       </c>
-      <c r="N84" s="17">
+      <c r="N84" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="O84" s="17">
+      <c r="O84" s="14">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="P84" s="17">
+      <c r="P84" s="14">
         <v>1.72E-2</v>
       </c>
     </row>
     <row r="85" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E85" s="16">
+      <c r="E85" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F85" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G85" s="17">
+      <c r="G85" s="14">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="H85" s="17">
+      <c r="H85" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I85" s="17">
+      <c r="I85" s="14">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="J85" s="17">
+      <c r="J85" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K85" s="16">
+      <c r="K85" s="13">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="L85" s="17">
+      <c r="L85" s="14">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="M85" s="17">
+      <c r="M85" s="14">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="N85" s="17">
+      <c r="N85" s="14">
         <v>5.3E-3</v>
       </c>
-      <c r="O85" s="17">
+      <c r="O85" s="14">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="P85" s="17">
+      <c r="P85" s="14">
         <v>1.6299999999999999E-2</v>
       </c>
     </row>
     <row r="86" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E86" s="16">
+      <c r="E86" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F86" s="14">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="G86" s="17">
+      <c r="G86" s="14">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="H86" s="17">
+      <c r="H86" s="14">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="I86" s="17">
+      <c r="I86" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J86" s="17">
+      <c r="J86" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K86" s="16">
+      <c r="K86" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="L86" s="17">
+      <c r="L86" s="14">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="M86" s="17">
+      <c r="M86" s="14">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="N86" s="17">
+      <c r="N86" s="14">
         <v>5.3E-3</v>
       </c>
-      <c r="O86" s="17">
+      <c r="O86" s="14">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="P86" s="17">
+      <c r="P86" s="14">
         <v>1.6899999999999998E-2</v>
       </c>
     </row>
     <row r="87" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E87" s="16">
+      <c r="E87" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F87" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G87" s="17">
+      <c r="G87" s="14">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H87" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I87" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J87" s="17">
+      <c r="J87" s="14">
         <v>1.89E-2</v>
       </c>
-      <c r="K87" s="16">
+      <c r="K87" s="13">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="L87" s="17">
+      <c r="L87" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="M87" s="17">
+      <c r="M87" s="14">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="N87" s="17">
+      <c r="N87" s="14">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="O87" s="17">
+      <c r="O87" s="14">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="P87" s="17">
+      <c r="P87" s="14">
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
     <row r="88" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E88" s="16">
+      <c r="E88" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F88" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G88" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H88" s="14">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I88" s="14">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="J88" s="17">
+      <c r="J88" s="14">
         <v>1.37E-2</v>
       </c>
-      <c r="K88" s="16">
+      <c r="K88" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="L88" s="17">
+      <c r="L88" s="14">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="M88" s="17">
+      <c r="M88" s="14">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="N88" s="17">
+      <c r="N88" s="14">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="O88" s="17">
+      <c r="O88" s="14">
         <v>1.03E-2</v>
       </c>
-      <c r="P88" s="17">
+      <c r="P88" s="14">
         <v>1.67E-2</v>
       </c>
     </row>
     <row r="89" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E89" s="16">
+      <c r="E89" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F89" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G89" s="17">
+      <c r="G89" s="14">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="H89" s="17">
+      <c r="H89" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I89" s="17">
+      <c r="I89" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J89" s="17">
+      <c r="J89" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K89" s="16">
+      <c r="K89" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="L89" s="17">
+      <c r="L89" s="14">
         <v>1.21E-2</v>
       </c>
-      <c r="M89" s="17">
+      <c r="M89" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N89" s="17">
+      <c r="N89" s="14">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="O89" s="17">
+      <c r="O89" s="14">
         <v>1.06E-2</v>
       </c>
-      <c r="P89" s="17">
+      <c r="P89" s="14">
         <v>1.5900000000000001E-2</v>
       </c>
     </row>
     <row r="90" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E90" s="16">
+      <c r="E90" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F90" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G90" s="17">
+      <c r="G90" s="14">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="H90" s="17">
+      <c r="H90" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I90" s="14">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="J90" s="17">
+      <c r="J90" s="14">
         <v>1.34E-2</v>
       </c>
-      <c r="K90" s="16">
+      <c r="K90" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="L90" s="17">
+      <c r="L90" s="14">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="M90" s="17">
+      <c r="M90" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N90" s="17">
+      <c r="N90" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="O90" s="17">
+      <c r="O90" s="14">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="P90" s="17">
+      <c r="P90" s="14">
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="91" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E91" s="16">
+      <c r="E91" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F91" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G91" s="17">
+      <c r="G91" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H91" s="17">
+      <c r="H91" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I91" s="17">
+      <c r="I91" s="14">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="J91" s="17">
+      <c r="J91" s="14">
         <v>1.32E-2</v>
       </c>
-      <c r="K91" s="16">
+      <c r="K91" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="L91" s="17">
+      <c r="L91" s="14">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="M91" s="17">
+      <c r="M91" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="N91" s="17">
+      <c r="N91" s="14">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="O91" s="17">
+      <c r="O91" s="14">
         <v>1.06E-2</v>
       </c>
-      <c r="P91" s="17">
+      <c r="P91" s="14">
         <v>1.61E-2</v>
       </c>
     </row>
     <row r="92" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E92" s="16">
+      <c r="E92" s="13">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="F92" s="17">
+      <c r="F92" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G92" s="17">
+      <c r="G92" s="14">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="H92" s="17">
+      <c r="H92" s="14">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="I92" s="17">
+      <c r="I92" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J92" s="17">
+      <c r="J92" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K92" s="16">
+      <c r="K92" s="13">
         <v>3.8E-3</v>
       </c>
-      <c r="L92" s="17">
+      <c r="L92" s="14">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="M92" s="17">
+      <c r="M92" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="N92" s="17">
+      <c r="N92" s="14">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="O92" s="17">
+      <c r="O92" s="14">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="P92" s="17">
+      <c r="P92" s="14">
         <v>1.61E-2</v>
       </c>
     </row>
     <row r="93" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E93" s="16">
+      <c r="E93" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F93" s="17">
+      <c r="F93" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G93" s="17">
+      <c r="G93" s="14">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="H93" s="17">
+      <c r="H93" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I93" s="17">
+      <c r="I93" s="14">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="J93" s="17">
+      <c r="J93" s="14">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="K93" s="16">
+      <c r="K93" s="13">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="L93" s="17">
+      <c r="L93" s="14">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="M93" s="17">
+      <c r="M93" s="14">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="N93" s="17">
+      <c r="N93" s="14">
         <v>2.86E-2</v>
       </c>
-      <c r="O93" s="17">
+      <c r="O93" s="14">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="P93" s="17">
+      <c r="P93" s="14">
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
     <row r="94" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E94" s="16">
+      <c r="E94" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F94" s="17">
+      <c r="F94" s="14">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="G94" s="17">
+      <c r="G94" s="14">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="H94" s="17">
+      <c r="H94" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I94" s="17">
+      <c r="I94" s="14">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="J94" s="17">
+      <c r="J94" s="14">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="K94" s="16">
+      <c r="K94" s="13">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="L94" s="17">
+      <c r="L94" s="14">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="M94" s="17">
+      <c r="M94" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="N94" s="17">
+      <c r="N94" s="14">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="O94" s="17">
+      <c r="O94" s="14">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="P94" s="17">
+      <c r="P94" s="14">
         <v>1.8800000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E95" s="16">
+      <c r="E95" s="13">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="F95" s="17">
+      <c r="F95" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G95" s="17">
+      <c r="G95" s="14">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="H95" s="17">
+      <c r="H95" s="14">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="I95" s="17">
+      <c r="I95" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J95" s="17">
+      <c r="J95" s="14">
         <v>1.35E-2</v>
       </c>
-      <c r="K95" s="16">
+      <c r="K95" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L95" s="17">
+      <c r="L95" s="14">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="M95" s="17">
+      <c r="M95" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="N95" s="17">
+      <c r="N95" s="14">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="O95" s="17">
+      <c r="O95" s="14">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="P95" s="17">
+      <c r="P95" s="14">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E96" s="16">
+      <c r="E96" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F96" s="17">
+      <c r="F96" s="14">
         <v>6.6E-3</v>
       </c>
-      <c r="G96" s="17">
+      <c r="G96" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H96" s="17">
+      <c r="H96" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I96" s="17">
+      <c r="I96" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J96" s="17">
+      <c r="J96" s="14">
         <v>1.35E-2</v>
       </c>
-      <c r="K96" s="16">
+      <c r="K96" s="13">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="L96" s="17">
+      <c r="L96" s="14">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="M96" s="17">
+      <c r="M96" s="14">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="N96" s="17">
+      <c r="N96" s="14">
         <v>6.6E-3</v>
       </c>
-      <c r="O96" s="17">
+      <c r="O96" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="P96" s="17">
+      <c r="P96" s="14">
         <v>1.35E-2</v>
       </c>
     </row>
     <row r="97" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E97" s="16">
+      <c r="E97" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F97" s="17">
+      <c r="F97" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G97" s="17">
+      <c r="G97" s="14">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="H97" s="17">
+      <c r="H97" s="14">
         <v>5.3E-3</v>
       </c>
-      <c r="I97" s="17">
+      <c r="I97" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J97" s="17">
+      <c r="J97" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K97" s="16">
+      <c r="K97" s="13">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="L97" s="17">
+      <c r="L97" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="M97" s="17">
+      <c r="M97" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N97" s="17">
+      <c r="N97" s="14">
         <v>6.3E-3</v>
       </c>
-      <c r="O97" s="17">
+      <c r="O97" s="14">
         <v>1.01E-2</v>
       </c>
-      <c r="P97" s="17">
+      <c r="P97" s="14">
         <v>1.35E-2</v>
       </c>
     </row>
     <row r="98" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E98" s="16">
+      <c r="E98" s="13">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F98" s="17">
+      <c r="F98" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G98" s="17">
+      <c r="G98" s="14">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="H98" s="17">
+      <c r="H98" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I98" s="17">
+      <c r="I98" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J98" s="17">
+      <c r="J98" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K98" s="16">
+      <c r="K98" s="13">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="L98" s="17">
+      <c r="L98" s="14">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="M98" s="17">
+      <c r="M98" s="14">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="N98" s="17">
+      <c r="N98" s="14">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="O98" s="17">
+      <c r="O98" s="14">
         <v>1.15E-2</v>
       </c>
-      <c r="P98" s="17">
+      <c r="P98" s="14">
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
     <row r="99" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E99" s="16">
+      <c r="E99" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F99" s="17">
+      <c r="F99" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G99" s="17">
+      <c r="G99" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H99" s="17">
+      <c r="H99" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I99" s="17">
+      <c r="I99" s="14">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="J99" s="17">
+      <c r="J99" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K99" s="16">
+      <c r="K99" s="13">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="L99" s="17">
+      <c r="L99" s="14">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="M99" s="17">
+      <c r="M99" s="14">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="N99" s="17">
+      <c r="N99" s="14">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="O99" s="17">
+      <c r="O99" s="14">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="P99" s="17">
+      <c r="P99" s="14">
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
     <row r="100" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E100" s="16">
+      <c r="E100" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F100" s="17">
+      <c r="F100" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G100" s="17">
+      <c r="G100" s="14">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="H100" s="17">
+      <c r="H100" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I100" s="17">
+      <c r="I100" s="14">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J100" s="17">
+      <c r="J100" s="14">
         <v>1.32E-2</v>
       </c>
-      <c r="K100" s="16">
+      <c r="K100" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L100" s="17">
+      <c r="L100" s="14">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="M100" s="17">
+      <c r="M100" s="14">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="N100" s="17">
+      <c r="N100" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="O100" s="17">
+      <c r="O100" s="14">
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="P100" s="17">
+      <c r="P100" s="14">
         <v>3.1099999999999999E-2</v>
       </c>
     </row>
     <row r="101" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E101" s="16">
+      <c r="E101" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F101" s="17">
+      <c r="F101" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G101" s="17">
+      <c r="G101" s="14">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="H101" s="17">
+      <c r="H101" s="14">
         <v>5.3E-3</v>
       </c>
-      <c r="I101" s="17">
+      <c r="I101" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J101" s="17">
+      <c r="J101" s="14">
         <v>1.4E-2</v>
       </c>
-      <c r="K101" s="16">
+      <c r="K101" s="13">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="L101" s="17">
+      <c r="L101" s="14">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="M101" s="17">
+      <c r="M101" s="14">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="N101" s="17">
+      <c r="N101" s="14">
         <v>2.07E-2</v>
       </c>
-      <c r="O101" s="17">
+      <c r="O101" s="14">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="P101" s="17">
+      <c r="P101" s="14">
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="102" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E102" s="16">
+      <c r="E102" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F102" s="17">
+      <c r="F102" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G102" s="17">
+      <c r="G102" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H102" s="17">
+      <c r="H102" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I102" s="17">
+      <c r="I102" s="14">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="J102" s="17">
+      <c r="J102" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K102" s="16">
+      <c r="K102" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L102" s="17">
+      <c r="L102" s="14">
         <v>1.01E-2</v>
       </c>
-      <c r="M102" s="17">
+      <c r="M102" s="14">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N102" s="17">
+      <c r="N102" s="14">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="O102" s="17">
+      <c r="O102" s="14">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="P102" s="17">
+      <c r="P102" s="14">
         <v>2.3099999999999999E-2</v>
       </c>
     </row>
     <row r="103" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E103" s="16">
+      <c r="E103" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F103" s="17">
+      <c r="F103" s="14">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="G103" s="17">
+      <c r="G103" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H103" s="17">
+      <c r="H103" s="14">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="I103" s="17">
+      <c r="I103" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J103" s="17">
+      <c r="J103" s="14">
         <v>1.32E-2</v>
       </c>
-      <c r="K103" s="16">
+      <c r="K103" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L103" s="17">
+      <c r="L103" s="14">
         <v>1.35E-2</v>
       </c>
-      <c r="M103" s="17">
+      <c r="M103" s="14">
         <v>1.03E-2</v>
       </c>
-      <c r="N103" s="17">
+      <c r="N103" s="14">
         <v>6.6E-3</v>
       </c>
-      <c r="O103" s="17">
+      <c r="O103" s="14">
         <v>1.12E-2</v>
       </c>
-      <c r="P103" s="17">
+      <c r="P103" s="14">
         <v>1.66E-2</v>
       </c>
     </row>
     <row r="104" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E104" s="16">
+      <c r="E104" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F104" s="17">
+      <c r="F104" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G104" s="17">
+      <c r="G104" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H104" s="17">
+      <c r="H104" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I104" s="17">
+      <c r="I104" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J104" s="17">
+      <c r="J104" s="14">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="K104" s="16">
+      <c r="K104" s="13">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="L104" s="17">
+      <c r="L104" s="14">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="M104" s="17">
+      <c r="M104" s="14">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="N104" s="17">
+      <c r="N104" s="14">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="O104" s="17">
+      <c r="O104" s="14">
         <v>1.17E-2</v>
       </c>
-      <c r="P104" s="17">
+      <c r="P104" s="14">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="105" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E105" s="16">
+      <c r="E105" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F105" s="17">
+      <c r="F105" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G105" s="17">
+      <c r="G105" s="14">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="H105" s="17">
+      <c r="H105" s="14">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="I105" s="17">
+      <c r="I105" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J105" s="17">
+      <c r="J105" s="14">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="K105" s="16">
+      <c r="K105" s="13">
         <v>5.3E-3</v>
       </c>
-      <c r="L105" s="17">
+      <c r="L105" s="14">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="M105" s="17">
+      <c r="M105" s="14">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="N105" s="17">
+      <c r="N105" s="14">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="O105" s="17">
+      <c r="O105" s="14">
         <v>1.11E-2</v>
       </c>
-      <c r="P105" s="17">
+      <c r="P105" s="14">
         <v>1.66E-2</v>
       </c>
     </row>
     <row r="106" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E106" s="16">
+      <c r="E106" s="13">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F106" s="17">
+      <c r="F106" s="14">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="G106" s="17">
+      <c r="G106" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H106" s="17">
+      <c r="H106" s="14">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="I106" s="17">
+      <c r="I106" s="14">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="J106" s="17">
+      <c r="J106" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="K106" s="16">
+      <c r="K106" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L106" s="17">
+      <c r="L106" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="M106" s="17">
+      <c r="M106" s="14">
         <v>1.09E-2</v>
       </c>
-      <c r="N106" s="17">
+      <c r="N106" s="14">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="O106" s="17">
+      <c r="O106" s="14">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="P106" s="17">
+      <c r="P106" s="14">
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
     <row r="107" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E107" s="16">
+      <c r="E107" s="13">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="F107" s="17">
+      <c r="F107" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G107" s="17">
+      <c r="G107" s="14">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="H107" s="17">
+      <c r="H107" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I107" s="17">
+      <c r="I107" s="14">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="J107" s="17">
+      <c r="J107" s="14">
         <v>1.32E-2</v>
       </c>
-      <c r="K107" s="16">
+      <c r="K107" s="13">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="L107" s="17">
+      <c r="L107" s="14">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="M107" s="17">
+      <c r="M107" s="14">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="N107" s="17">
+      <c r="N107" s="14">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="O107" s="17">
+      <c r="O107" s="14">
         <v>1.09E-2</v>
       </c>
-      <c r="P107" s="17">
+      <c r="P107" s="14">
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E108" s="16">
+      <c r="E108" s="13">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="F108" s="17">
+      <c r="F108" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G108" s="17">
+      <c r="G108" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H108" s="17">
+      <c r="H108" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I108" s="17">
+      <c r="I108" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J108" s="17">
+      <c r="J108" s="14">
         <v>1.32E-2</v>
       </c>
-      <c r="K108" s="16">
+      <c r="K108" s="13">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="L108" s="17">
+      <c r="L108" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M108" s="17">
+      <c r="M108" s="14">
         <v>1.06E-2</v>
       </c>
-      <c r="N108" s="17">
+      <c r="N108" s="14">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="O108" s="17">
+      <c r="O108" s="14">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="P108" s="17">
+      <c r="P108" s="14">
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="109" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E109" s="16">
+      <c r="E109" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F109" s="17">
+      <c r="F109" s="14">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="G109" s="17">
+      <c r="G109" s="14">
         <v>8.6E-3</v>
       </c>
-      <c r="H109" s="17">
+      <c r="H109" s="14">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="I109" s="17">
+      <c r="I109" s="14">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="J109" s="17">
+      <c r="J109" s="14">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="K109" s="16">
+      <c r="K109" s="13">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="L109" s="17">
+      <c r="L109" s="14">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="M109" s="17">
+      <c r="M109" s="14">
         <v>1.17E-2</v>
       </c>
-      <c r="N109" s="17">
+      <c r="N109" s="14">
         <v>6.6E-3</v>
       </c>
-      <c r="O109" s="17">
+      <c r="O109" s="14">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="P109" s="17">
+      <c r="P109" s="14">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>

--- a/product-prediction/product-prediction/Docs/Fase de Analisis.xlsx
+++ b/product-prediction/product-prediction/Docs/Fase de Analisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aspire F 15\Desktop\product-prediction\product-prediction\product-prediction\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF20B72A-E1F7-4D37-914C-0D1B56E4BCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BD5352-EE6B-4A23-8A63-B7C427BF302D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{436B2352-DCD9-4E3F-BAD9-52E6C5529D17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{436B2352-DCD9-4E3F-BAD9-52E6C5529D17}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Proceso" sheetId="1" r:id="rId1"/>
@@ -181,13 +181,13 @@
     <t>Conclusiones</t>
   </si>
   <si>
-    <t>Como 1,24 es menor a 1,79 , podemos decir que Ho se acepta y por tanto se puede decir que las medias de los tratamientos son similares, se utilizo un nivel de significancia del 5%</t>
-  </si>
-  <si>
     <t>Objetivo: comprobar que al menos una media de los tratamientos utilizados para  comparar los arboles de decisión por implementación propia y de librería.</t>
   </si>
   <si>
     <t xml:space="preserve">µ1 =  µ2 =  µ3 =  µ4 =  µ5 =  µ6 =  µ7 =  µ8 =  µ9 =  µ10 =  µ11 =  µ12  </t>
+  </si>
+  <si>
+    <t>Como 1,12 es menor a 1,79 , podemos decir que Ho se acepta y por tanto se puede decir que las medias de los tratamientos son similares, se utilizo un nivel de significancia del 5%</t>
   </si>
 </sst>
 </file>
@@ -9971,8 +9971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7052C6-DFA2-41D5-996D-B518D4F4DBCE}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17:S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10225,7 +10225,7 @@
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O17" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
@@ -34780,7 +34780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FF340B-9CBA-4646-BBF0-A543BB1154FF}">
   <dimension ref="B2:P109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:M5"/>
     </sheetView>
   </sheetViews>
@@ -34799,7 +34799,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="H2" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
@@ -34836,7 +34836,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
